--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-235406.6145281642</v>
+        <v>-237870.6779718699</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>56.73266169306841</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292606</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>105.8451462478866</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>279.8322967390607</v>
       </c>
       <c r="W2" t="n">
-        <v>20.69373624728712</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>119.8620943363776</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>217.0914199928473</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>95.28662560877972</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>273.5080478807756</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>77.40393689813706</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>124.8952501715942</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>198.7866240250349</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>41.35684107511737</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>60.31323908025411</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991669</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U13" t="n">
-        <v>176.1811323375803</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>9.592641220496363</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>270.3018801000524</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182105</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>62.36981422367045</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>161.0175085755528</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>120.1447214650597</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>41.02686156550218</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>13.79222725775231</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>222.3799391677275</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>104.1233804225859</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2044.207458949102</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C2" t="n">
-        <v>1675.24494200869</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927148</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3218.691532469892</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136264</v>
+        <v>3218.691532469892</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136264</v>
+        <v>2965.161055743728</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136264</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W2" t="n">
-        <v>3194.412389250115</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X2" t="n">
-        <v>2820.946630989035</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y2" t="n">
-        <v>2430.807299013224</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158125</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438128</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992582</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410636</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886739</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.4780323548191</v>
+        <v>431.1278029579779</v>
       </c>
       <c r="C4" t="n">
-        <v>364.5418494269122</v>
+        <v>431.1278029579779</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>431.1278029579779</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218338</v>
+        <v>431.1278029579779</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218338</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218338</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218338</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1708.010285469454</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1708.010285469454</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1453.325797263567</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>1163.908627226606</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X4" t="n">
-        <v>935.919076328589</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y4" t="n">
-        <v>715.1264971850588</v>
+        <v>431.1278029579779</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1899.13013587303</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C5" t="n">
-        <v>1530.167618932618</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3229.356704832626</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3023.378957216848</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>3023.378957216848</v>
       </c>
       <c r="V5" t="n">
-        <v>3049.335066174043</v>
+        <v>2692.316069873278</v>
       </c>
       <c r="W5" t="n">
-        <v>3049.335066174043</v>
+        <v>2339.547414603163</v>
       </c>
       <c r="X5" t="n">
-        <v>2675.869307912963</v>
+        <v>1966.081656342083</v>
       </c>
       <c r="Y5" t="n">
-        <v>2285.729975937151</v>
+        <v>1575.942324366272</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064581</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>561.0764108006838</v>
+        <v>973.5548741173881</v>
       </c>
       <c r="C7" t="n">
-        <v>392.1402278727769</v>
+        <v>804.6186911894812</v>
       </c>
       <c r="D7" t="n">
-        <v>242.0235884604412</v>
+        <v>654.5020517771454</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>506.5889581947523</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1480.924175709432</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1191.507005672471</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>963.5174547744537</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>742.7248756309235</v>
+        <v>1155.203338947628</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.338003964586</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1475.375487024174</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1117.109788417423</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>731.3215358191792</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>320.3356310295716</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>309.3035849149722</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,16 +4814,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
@@ -4832,22 +4832,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.542934265599</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.077176004519</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>2230.937844028707</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738575</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="C10" t="n">
-        <v>583.8261120459506</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336148</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512217</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533114</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882605</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947627</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040972</v>
+        <v>624.6989751875257</v>
       </c>
     </row>
     <row r="11">
@@ -5030,37 +5030,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5197,37 +5197,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U13" t="n">
         <v>2049.400878868273</v>
@@ -5267,34 +5267,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.5811134804959</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C16" t="n">
-        <v>615.644930552589</v>
+        <v>709.4207169875</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>559.3040775751642</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1704.428878389244</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1704.428878389244</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1415.011708352283</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1187.022157454266</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>966.2295783107356</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5507,10 +5507,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>700.7543264856228</v>
+        <v>707.672526468516</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>538.7363435406091</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2383.963271233119</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2164.361806256059</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1875.286579600257</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1620.602091394371</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1331.18492135741</v>
+        <v>1338.103121340303</v>
       </c>
       <c r="X19" t="n">
-        <v>1103.195370459393</v>
+        <v>1110.113570442286</v>
       </c>
       <c r="Y19" t="n">
-        <v>882.4027913158625</v>
+        <v>889.3209912987558</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,58 +5738,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.3099000622261</v>
+        <v>1052.829365488568</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3737171343192</v>
+        <v>883.8931825606608</v>
       </c>
       <c r="D22" t="n">
-        <v>597.2570777219835</v>
+        <v>733.776543148325</v>
       </c>
       <c r="E22" t="n">
-        <v>449.3439841395904</v>
+        <v>585.8634495659319</v>
       </c>
       <c r="F22" t="n">
-        <v>302.45403664168</v>
+        <v>438.9735020680215</v>
       </c>
       <c r="G22" t="n">
-        <v>135.2579373565599</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>135.2579373565599</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1972.677130397315</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934013</v>
+        <v>1683.259960360355</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>1455.270409462337</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892466</v>
+        <v>1234.477830318807</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2433.031540895662</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2213.430075918604</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1924.354849262801</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1669.670361056914</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1380.253191019954</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X25" t="n">
-        <v>1152.263640121936</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>931.4710609784063</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6464,7 +6464,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7172,10 +7172,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7354,10 +7354,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
         <v>2035.268256189238</v>
@@ -7400,16 +7400,16 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
         <v>533.5814564942654</v>
@@ -7795,19 +7795,19 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311324</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.345373895096259e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,16 +22598,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>47.91996173107424</v>
       </c>
       <c r="W2" t="n">
-        <v>328.5472324701259</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U13" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>136.8413214260728</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>15.88259428919173</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>118.6564717779741</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>125.5054897610382</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>45.3794168272091</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>40.23897475306335</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272928</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892428</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>167.2340587438923</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>3.329716221309695</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>31.77834493961092</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>61.40075786968293</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1123245.341804029</v>
+        <v>1123245.34180403</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1123245.341804029</v>
+        <v>1123245.34180403</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1123245.341804029</v>
+        <v>1123245.34180403</v>
       </c>
     </row>
     <row r="10">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028987</v>
+        <v>274720.9666028984</v>
       </c>
       <c r="C2" t="n">
+        <v>307890.6636991061</v>
+      </c>
+      <c r="D2" t="n">
         <v>307890.6636991063</v>
-      </c>
-      <c r="D2" t="n">
-        <v>307890.6636991064</v>
       </c>
       <c r="E2" t="n">
         <v>302679.9748837522</v>
@@ -26326,34 +26326,34 @@
         <v>302679.9748837522</v>
       </c>
       <c r="G2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="H2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="I2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="J2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="K2" t="n">
         <v>302679.9748837524</v>
       </c>
       <c r="L2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="M2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="N2" t="n">
         <v>302679.9748837523</v>
       </c>
-      <c r="N2" t="n">
-        <v>302679.9748837522</v>
-      </c>
       <c r="O2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991059</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.7179936318</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42917.99749064685</v>
+        <v>42917.99749064656</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26439,16 +26439,16 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685507</v>
@@ -26457,7 +26457,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994852</v>
+        <v>22207.61133994853</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1204875.717176733</v>
+        <v>-1205096.848490709</v>
       </c>
       <c r="C6" t="n">
-        <v>106552.9362895062</v>
+        <v>106552.9362895065</v>
       </c>
       <c r="D6" t="n">
-        <v>106552.9362895068</v>
+        <v>106552.9362895066</v>
       </c>
       <c r="E6" t="n">
-        <v>-138071.7688243656</v>
+        <v>-138106.5067498009</v>
       </c>
       <c r="F6" t="n">
-        <v>187340.69298299</v>
+        <v>187305.9550575543</v>
       </c>
       <c r="G6" t="n">
-        <v>187340.6929829901</v>
+        <v>187305.9550575541</v>
       </c>
       <c r="H6" t="n">
-        <v>187340.69298299</v>
+        <v>187305.9550575544</v>
       </c>
       <c r="I6" t="n">
-        <v>187340.6929829901</v>
+        <v>187305.9550575543</v>
       </c>
       <c r="J6" t="n">
-        <v>-30190.50941428728</v>
+        <v>-30225.24733972279</v>
       </c>
       <c r="K6" t="n">
-        <v>187340.6929829902</v>
+        <v>187305.9550575545</v>
       </c>
       <c r="L6" t="n">
-        <v>187340.6929829901</v>
+        <v>187305.9550575544</v>
       </c>
       <c r="M6" t="n">
-        <v>102285.6650474782</v>
+        <v>102250.9271220426</v>
       </c>
       <c r="N6" t="n">
-        <v>187340.69298299</v>
+        <v>187305.9550575544</v>
       </c>
       <c r="O6" t="n">
-        <v>187340.6929829901</v>
+        <v>187305.9550575544</v>
       </c>
       <c r="P6" t="n">
-        <v>163091.2185116104</v>
+        <v>163091.2185116102</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,13 +26802,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26960,19 +26960,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>297.9503799276146</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>3.342615540289245</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>25.55895368655362</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983813</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004739</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>2.45752928332189</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>13.90113617939612</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>54.24421058935934</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>69.03002574843211</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>20.52579785133709</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>95.82114036228555</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>328.3742596033517</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>106.9335820183737</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911154</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28725,7 +28725,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29010,10 +29010,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,13 +34126,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306614</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394658</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
